--- a/data/trans_orig/P50A_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P50A_2-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5861</v>
+        <v>5200</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004057618743135307</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02030795712268985</v>
+        <v>0.01801915601248986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5881</v>
+        <v>5859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002103521978152859</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01056417944012802</v>
+        <v>0.01052484540845832</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3629</v>
+        <v>3813</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002518466947072377</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01257413252503525</v>
+        <v>0.01321226313988831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3654</v>
+        <v>4295</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001305605802265396</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.00656383539851916</v>
+        <v>0.007716062322535265</v>
       </c>
     </row>
     <row r="6">
@@ -868,19 +868,19 @@
         <v>12217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5553</v>
+        <v>6064</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22556</v>
+        <v>23222</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04233306565075404</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01924105703731023</v>
+        <v>0.02101154522218375</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07815665568288604</v>
+        <v>0.08046626240659251</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -889,19 +889,19 @@
         <v>4031</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10235</v>
+        <v>9155</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01503414212725214</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003768686815213465</v>
+        <v>0.003746803149282476</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03817633614921298</v>
+        <v>0.03414763734468659</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -910,19 +910,19 @@
         <v>16248</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8973</v>
+        <v>8613</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27467</v>
+        <v>27222</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02918625676560998</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01611879770903916</v>
+        <v>0.01547162787312523</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04934008562281834</v>
+        <v>0.04889974494217509</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>274480</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>263788</v>
+        <v>262702</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>281533</v>
+        <v>281056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9510908486590383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9140429062972955</v>
+        <v>0.910278029819379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9755289905587555</v>
+        <v>0.9738753918634506</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>234</v>
@@ -960,19 +960,19 @@
         <v>264063</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>257859</v>
+        <v>258939</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267084</v>
+        <v>267090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9849658578727478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9618236638507871</v>
+        <v>0.9658523626553133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9962313131847865</v>
+        <v>0.9962531968507176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>498</v>
@@ -981,19 +981,19 @@
         <v>538544</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>527394</v>
+        <v>527054</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>546390</v>
+        <v>546487</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9674046154539717</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9473769346816066</v>
+        <v>0.9467652444393473</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9814986560482826</v>
+        <v>0.9816735015894311</v>
       </c>
     </row>
     <row r="8">
@@ -1179,19 +1179,19 @@
         <v>4034</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13032</v>
+        <v>12981</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008128857007222358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001968725901307532</v>
+        <v>0.001972832686888527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02625784920263476</v>
+        <v>0.02615519866276476</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5139</v>
+        <v>6210</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002048575748814354</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.010180017175082</v>
+        <v>0.01230001839624787</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1221,19 +1221,19 @@
         <v>5069</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1945</v>
+        <v>1922</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12473</v>
+        <v>13248</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005062729651096341</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00194238789675723</v>
+        <v>0.001920109747033662</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01245848956622909</v>
+        <v>0.01323269477101093</v>
       </c>
     </row>
     <row r="12">
@@ -1250,19 +1250,19 @@
         <v>492259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>483261</v>
+        <v>483312</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>495316</v>
+        <v>495314</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9918711429927777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9737421507973649</v>
+        <v>0.9738448013372349</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9980312740986924</v>
+        <v>0.9980271673131115</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>461</v>
@@ -1271,7 +1271,7 @@
         <v>503817</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>499712</v>
+        <v>498641</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>504851</v>
@@ -1280,7 +1280,7 @@
         <v>0.9979514242511857</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.989819982824918</v>
+        <v>0.9876999816037522</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1292,19 +1292,19 @@
         <v>996076</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>988672</v>
+        <v>987897</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>999200</v>
+        <v>999223</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9949372703489037</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9875415104337719</v>
+        <v>0.986767305228989</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9980576121032428</v>
+        <v>0.9980798902529664</v>
       </c>
     </row>
     <row r="13">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4639</v>
+        <v>5638</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002460592506603683</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01220560848781128</v>
+        <v>0.01483489734583332</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4720</v>
+        <v>5122</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001251824904230111</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006317620605266931</v>
+        <v>0.006855697637777845</v>
       </c>
     </row>
     <row r="21">
@@ -1769,19 +1769,19 @@
         <v>2937</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8722</v>
+        <v>7831</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008004381840207747</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002313718184630815</v>
+        <v>0.002359930278783052</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0237669234590841</v>
+        <v>0.02133912635431223</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11088</v>
+        <v>9852</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007371102800468006</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02917501211152178</v>
+        <v>0.02592285952149123</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1811,19 +1811,19 @@
         <v>5739</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1882</v>
+        <v>1925</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14149</v>
+        <v>13170</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007682201523415933</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00251977173826704</v>
+        <v>0.00257744896612571</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01894019776404451</v>
+        <v>0.0176291845919917</v>
       </c>
     </row>
     <row r="22">
@@ -1840,19 +1840,19 @@
         <v>364048</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>358263</v>
+        <v>359154</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>366136</v>
+        <v>366119</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9919956181597922</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9762330765409161</v>
+        <v>0.9786608736456878</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9976862818153691</v>
+        <v>0.997640069721217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>360</v>
@@ -1861,19 +1861,19 @@
         <v>376320</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>368891</v>
+        <v>369386</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>379125</v>
+        <v>379122</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9901683046929283</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9706199129339455</v>
+        <v>0.9719219404344822</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9975477591590324</v>
+        <v>0.9975403231224881</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>694</v>
@@ -1882,19 +1882,19 @@
         <v>740369</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>732068</v>
+        <v>732758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>744295</v>
+        <v>744273</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9910659735723539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9799542986314894</v>
+        <v>0.9808778307079716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9963218379010046</v>
+        <v>0.9962921273080241</v>
       </c>
     </row>
     <row r="23">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6913</v>
+        <v>7076</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009643577653341852</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03285047613486498</v>
+        <v>0.03362809817545883</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4942</v>
+        <v>4852</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004605554643987333</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02360501579797761</v>
+        <v>0.02317360066744641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2122,19 +2122,19 @@
         <v>2993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7970</v>
+        <v>7843</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007131018777678923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002283565606082412</v>
+        <v>0.002298992070809538</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01898573359040953</v>
+        <v>0.01868240580465348</v>
       </c>
     </row>
     <row r="27">
@@ -2151,7 +2151,7 @@
         <v>208401</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>203517</v>
+        <v>203354</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>210430</v>
@@ -2160,7 +2160,7 @@
         <v>0.9903564223466581</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9671495238651352</v>
+        <v>0.9663719018245411</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>208391</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>204413</v>
+        <v>204503</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>209355</v>
@@ -2181,7 +2181,7 @@
         <v>0.9953944453560126</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9763949842020224</v>
+        <v>0.9768263993325523</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -2193,19 +2193,19 @@
         <v>416791</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>411814</v>
+        <v>411941</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>418825</v>
+        <v>418819</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.992868981222321</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9810142664095904</v>
+        <v>0.9813175941953464</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9977164343939176</v>
+        <v>0.9977010079291905</v>
       </c>
     </row>
     <row r="28">
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5328</v>
+        <v>4920</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.003610117480984306</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01969788050553722</v>
+        <v>0.01818816197593588</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4840</v>
+        <v>4917</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001807936205633627</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0089605528463389</v>
+        <v>0.009102858613607613</v>
       </c>
     </row>
     <row r="31">
@@ -2454,7 +2454,7 @@
         <v>269527</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>265176</v>
+        <v>265584</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>270504</v>
@@ -2463,7 +2463,7 @@
         <v>0.9963898825190157</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9803021194944638</v>
+        <v>0.9818118380240642</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2488,7 +2488,7 @@
         <v>539169</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>535306</v>
+        <v>535229</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>540146</v>
@@ -2497,7 +2497,7 @@
         <v>0.9981920637943664</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9910394471536611</v>
+        <v>0.9908971413863924</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -2592,19 +2592,19 @@
         <v>2731</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8135</v>
+        <v>7342</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.004162441548420334</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001363376305799053</v>
+        <v>0.001364909831331044</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01239878129991173</v>
+        <v>0.01118990667690813</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2626,19 +2626,19 @@
         <v>2731</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7383</v>
+        <v>7300</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002045439335738982</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0006723550901825949</v>
+        <v>0.0006744862266169122</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005529071602720314</v>
+        <v>0.005467003717586173</v>
       </c>
     </row>
     <row r="35">
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4804</v>
+        <v>4827</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001452541314673795</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.007321562648747524</v>
+        <v>0.007355944568310391</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4771</v>
+        <v>4791</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0007137842315040644</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.003573272481240227</v>
+        <v>0.00358844837117858</v>
       </c>
     </row>
     <row r="36">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8114</v>
+        <v>7438</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003266035249456467</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01236651646751387</v>
+        <v>0.01133561867085325</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5713</v>
+        <v>6001</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001454655707906463</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008412078678863856</v>
+        <v>0.008836445108920406</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -2760,19 +2760,19 @@
         <v>3131</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8840</v>
+        <v>9139</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002344774385403643</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0006729757096621028</v>
+        <v>0.0006683992284870097</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.006620849044533351</v>
+        <v>0.006844458902425818</v>
       </c>
     </row>
     <row r="37">
@@ -2789,19 +2789,19 @@
         <v>650312</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>644151</v>
+        <v>643751</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>653945</v>
+        <v>654305</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9911189818874494</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9817300567051873</v>
+        <v>0.9811196773899751</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9966555574791834</v>
+        <v>0.9972046132155643</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>622</v>
@@ -2810,7 +2810,7 @@
         <v>678107</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>673382</v>
+        <v>673094</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>679095</v>
@@ -2819,7 +2819,7 @@
         <v>0.9985453442920935</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9915879213211367</v>
+        <v>0.9911635548910795</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -2831,19 +2831,19 @@
         <v>1328418</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1322052</v>
+        <v>1321709</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1332429</v>
+        <v>1332169</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9948960020473533</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9901281034575024</v>
+        <v>0.9898713507005559</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9978999124149167</v>
+        <v>0.997705424275692</v>
       </c>
     </row>
     <row r="38">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5224</v>
+        <v>5718</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.00139067785729139</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.006979619851149528</v>
+        <v>0.007639883167309793</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5225</v>
+        <v>5257</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0006894334204206557</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003460959611739537</v>
+        <v>0.003482021619053437</v>
       </c>
     </row>
     <row r="40">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6023</v>
+        <v>6486</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002627398872207823</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.008047163328319201</v>
+        <v>0.008665153347650804</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5019</v>
+        <v>5007</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001315715777850675</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.006591928526049439</v>
+        <v>0.006576942596925466</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3040,19 +3040,19 @@
         <v>2968</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7973</v>
+        <v>7922</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001965987267764184</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0006207290989016282</v>
+        <v>0.0006191658728445972</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00528060228052238</v>
+        <v>0.005247082272640761</v>
       </c>
     </row>
     <row r="41">
@@ -3069,19 +3069,19 @@
         <v>5068</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1045</v>
+        <v>1974</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10992</v>
+        <v>11265</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.00677127987072558</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001396645187379394</v>
+        <v>0.002637749076826397</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01468614342413557</v>
+        <v>0.01505046839767501</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3090,19 +3090,19 @@
         <v>5006</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1941</v>
+        <v>1960</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11058</v>
+        <v>11219</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006575993855068772</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002549217223591655</v>
+        <v>0.00257447095061977</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01452495446554428</v>
+        <v>0.01473640928850123</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -3111,19 +3111,19 @@
         <v>10075</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5460</v>
+        <v>5067</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>19060</v>
+        <v>17972</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006672807581575374</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003616148634973499</v>
+        <v>0.003356283399468494</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01262414164190359</v>
+        <v>0.01190370012272152</v>
       </c>
     </row>
     <row r="42">
@@ -3140,19 +3140,19 @@
         <v>740413</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>733332</v>
+        <v>733350</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>744539</v>
+        <v>744601</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9892106433997752</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.979749999282411</v>
+        <v>0.9797735790527581</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9947223240966681</v>
+        <v>0.9948049008010902</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>694</v>
@@ -3161,19 +3161,19 @@
         <v>755304</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>748412</v>
+        <v>748081</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>759235</v>
+        <v>759203</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9921082903670806</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9830556401029396</v>
+        <v>0.9826210127012781</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9972722656203755</v>
+        <v>0.9972301027290711</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1377</v>
@@ -3182,19 +3182,19 @@
         <v>1495717</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1486606</v>
+        <v>1487609</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1501764</v>
+        <v>1502656</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9906717717302398</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9846369823828072</v>
+        <v>0.9853014469811183</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9946769334087362</v>
+        <v>0.9952673427539738</v>
       </c>
     </row>
     <row r="43">
@@ -3286,19 +3286,19 @@
         <v>4943</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11096</v>
+        <v>10865</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001472270383916914</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0005453310608938806</v>
+        <v>0.00054287636245318</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003304789747525203</v>
+        <v>0.003236112905142191</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>4943</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1807</v>
+        <v>1825</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>10954</v>
+        <v>11136</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0007307523325657262</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0002670705145496063</v>
+        <v>0.0002698368074003143</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.001619365655805675</v>
+        <v>0.001646320023808654</v>
       </c>
     </row>
     <row r="45">
@@ -3349,19 +3349,19 @@
         <v>4623</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1034</v>
+        <v>1773</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>10563</v>
+        <v>11389</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.001376947980237191</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.000308105350030622</v>
+        <v>0.0005281536289268225</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.003146025843631678</v>
+        <v>0.003392315832686092</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>6756</v>
+        <v>7731</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0005685044069917229</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.001983111449467761</v>
+        <v>0.002269187279033626</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>7</v>
@@ -3391,19 +3391,19 @@
         <v>6560</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2860</v>
+        <v>2611</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>13567</v>
+        <v>12090</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0009697703927444022</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0004228317915349355</v>
+        <v>0.0003860561376406319</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.002005715929513579</v>
+        <v>0.001787284901336129</v>
       </c>
     </row>
     <row r="46">
@@ -3420,19 +3420,19 @@
         <v>28429</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>18086</v>
+        <v>18446</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>42596</v>
+        <v>42069</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.008467587644503722</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005386782456711061</v>
+        <v>0.005494050204399616</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01268712289297392</v>
+        <v>0.01253000566709417</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -3441,19 +3441,19 @@
         <v>14825</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8783</v>
+        <v>7914</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>24755</v>
+        <v>23854</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004351364805785372</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002578055565459331</v>
+        <v>0.002322960422268654</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.007266002885027175</v>
+        <v>0.007001633430598481</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>39</v>
@@ -3462,19 +3462,19 @@
         <v>43254</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30689</v>
+        <v>31688</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>58804</v>
+        <v>60930</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006394426646607878</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004536950838139364</v>
+        <v>0.0046846173640552</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.008693238561115157</v>
+        <v>0.009007574138601905</v>
       </c>
     </row>
     <row r="47">
@@ -3491,19 +3491,19 @@
         <v>3319440</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3303935</v>
+        <v>3305010</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3332114</v>
+        <v>3331236</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9886831939913422</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9840651085139377</v>
+        <v>0.9843853701452134</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9924582465484286</v>
+        <v>0.9921968479551507</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3142</v>
@@ -3512,19 +3512,19 @@
         <v>3390137</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3379951</v>
+        <v>3380192</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3396989</v>
+        <v>3397286</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9950801307872229</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9920903653755587</v>
+        <v>0.9921611097935504</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9970914395578395</v>
+        <v>0.9971786222826072</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6253</v>
@@ -3533,19 +3533,19 @@
         <v>6709577</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6691715</v>
+        <v>6691446</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6724010</v>
+        <v>6722711</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.991905050628082</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9892643630682907</v>
+        <v>0.9892247076510332</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9940387000283887</v>
+        <v>0.9938466919579966</v>
       </c>
     </row>
     <row r="48">
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6481</v>
+        <v>5760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003660635584504959</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02238682805058759</v>
+        <v>0.01989632428817664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5301</v>
+        <v>5376</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001838365879325178</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009196399257173544</v>
+        <v>0.009325953865636068</v>
       </c>
     </row>
     <row r="6">
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9181</v>
+        <v>9066</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009153345066579489</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03171548120541456</v>
+        <v>0.03131744959043684</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6198</v>
+        <v>7140</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006160929029008925</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02159940448605478</v>
+        <v>0.02488175551990298</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -4033,19 +4033,19 @@
         <v>4418</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>932</v>
+        <v>1245</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11278</v>
+        <v>10937</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007663716021382851</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001615992283815618</v>
+        <v>0.002160514079411732</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01956514523685202</v>
+        <v>0.01897406485061193</v>
       </c>
     </row>
     <row r="7">
@@ -4062,19 +4062,19 @@
         <v>285774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>279044</v>
+        <v>279608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288416</v>
+        <v>288432</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9871860193489156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9639391486258924</v>
+        <v>0.9658889847676755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9963156875206618</v>
+        <v>0.9963697070670392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>273</v>
@@ -4083,7 +4083,7 @@
         <v>285180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>280750</v>
+        <v>279808</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>286948</v>
@@ -4092,7 +4092,7 @@
         <v>0.9938390709709911</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9784005955139452</v>
+        <v>0.9751182444800973</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -4104,19 +4104,19 @@
         <v>570953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>563321</v>
+        <v>564286</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>574653</v>
+        <v>574314</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.990497918099292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9772580774559062</v>
+        <v>0.9789317387828491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9969165019012339</v>
+        <v>0.9963295263386731</v>
       </c>
     </row>
     <row r="8">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5450</v>
+        <v>5394</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002277312191116782</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01145454437320436</v>
+        <v>0.0113368178191418</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6986</v>
+        <v>6979</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00404963530862414</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01422339720691353</v>
+        <v>0.01420801708342179</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -4344,19 +4344,19 @@
         <v>3073</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8332</v>
+        <v>9187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003177537503463199</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001015947190395237</v>
+        <v>0.001020549148982482</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008616033405316078</v>
+        <v>0.009501113808595989</v>
       </c>
     </row>
     <row r="12">
@@ -4373,7 +4373,7 @@
         <v>474738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>470372</v>
+        <v>470428</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>475822</v>
@@ -4382,7 +4382,7 @@
         <v>0.9977226878088832</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9885454556267956</v>
+        <v>0.9886631821808581</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -4394,7 +4394,7 @@
         <v>489179</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>484182</v>
+        <v>484189</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>491168</v>
@@ -4403,7 +4403,7 @@
         <v>0.9959503646913759</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9857766027930865</v>
+        <v>0.9857919829165782</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -4415,19 +4415,19 @@
         <v>963917</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>958658</v>
+        <v>957803</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>966008</v>
+        <v>966003</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9968224624965368</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9913839665946838</v>
+        <v>0.9904988861914041</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9989840528096048</v>
+        <v>0.9989794508510175</v>
       </c>
     </row>
     <row r="13">
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4970</v>
+        <v>5031</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003021693634887525</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0150628957803307</v>
+        <v>0.01525030500703859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5047</v>
+        <v>4607</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001550313577632922</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007848718234280938</v>
+        <v>0.007164024977697554</v>
       </c>
     </row>
     <row r="17">
@@ -4689,7 +4689,7 @@
         <v>328925</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>324952</v>
+        <v>324891</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>329922</v>
@@ -4698,7 +4698,7 @@
         <v>0.9969783063651124</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9849371042196692</v>
+        <v>0.9847496949929614</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>642050</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>638000</v>
+        <v>638440</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>643047</v>
@@ -4719,7 +4719,7 @@
         <v>0.9984496864223671</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9921512817657191</v>
+        <v>0.9928359750223034</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5233</v>
+        <v>5215</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00270910680148678</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01368938426210504</v>
+        <v>0.0136418240623626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5237</v>
+        <v>5196</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001385029920822146</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007004445557900679</v>
+        <v>0.00695011177200452</v>
       </c>
     </row>
     <row r="20">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4685</v>
+        <v>5272</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002417881561507013</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01225547249216955</v>
+        <v>0.01379286916175878</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3740</v>
+        <v>5598</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001236141117010785</v>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.005002489203269955</v>
+        <v>0.007487809966848048</v>
       </c>
     </row>
     <row r="21">
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5760</v>
+        <v>5733</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.002661811479761976</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01576167442310627</v>
+        <v>0.01568799466309445</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4844</v>
+        <v>5031</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001300961275910683</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.00647893402941724</v>
+        <v>0.006729484018203991</v>
       </c>
     </row>
     <row r="22">
@@ -5003,7 +5003,7 @@
         <v>364452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>359665</v>
+        <v>359692</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>365425</v>
@@ -5012,7 +5012,7 @@
         <v>0.997338188520238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9842383255768939</v>
+        <v>0.9843120053369081</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -5024,7 +5024,7 @@
         <v>380287</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>375154</v>
+        <v>375351</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>382247</v>
@@ -5033,7 +5033,7 @@
         <v>0.9948730116370063</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9814426647684769</v>
+        <v>0.9819597643082794</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -5045,19 +5045,19 @@
         <v>744739</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>739483</v>
+        <v>738609</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>746749</v>
+        <v>746750</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9960778676862564</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9890492187725007</v>
+        <v>0.9878796286064887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9987672395391433</v>
+        <v>0.998768066658399</v>
       </c>
     </row>
     <row r="23">
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4601</v>
+        <v>6917</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001535280645591403</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.007023174405615315</v>
+        <v>0.01055938667020188</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5638</v>
+        <v>6102</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0007729610162404782</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.004332892057922372</v>
+        <v>0.004689530516218016</v>
       </c>
     </row>
     <row r="35">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5274</v>
+        <v>4231</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001619884701711002</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.008162810004624984</v>
+        <v>0.006549198250896538</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5907</v>
+        <v>4343</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0008043284522250212</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.004539722122614855</v>
+        <v>0.003337424372730359</v>
       </c>
     </row>
     <row r="36">
@@ -5801,19 +5801,19 @@
         <v>16946</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9764</v>
+        <v>9624</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28133</v>
+        <v>26431</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02622948035109934</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01511332103835442</v>
+        <v>0.014896531395933</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04354515784264565</v>
+        <v>0.04091012010973356</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -5822,19 +5822,19 @@
         <v>3129</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8937</v>
+        <v>8877</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.004777154180424021</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001407324303210625</v>
+        <v>0.001410243163236909</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01364239568202676</v>
+        <v>0.01355005201948106</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>18</v>
@@ -5843,19 +5843,19 @@
         <v>20076</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>11813</v>
+        <v>11755</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>30453</v>
+        <v>31617</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01542897173710587</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009078793724133012</v>
+        <v>0.009034460654330166</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02340411656520707</v>
+        <v>0.02429885091935224</v>
       </c>
     </row>
     <row r="37">
@@ -5872,19 +5872,19 @@
         <v>628082</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>616781</v>
+        <v>618000</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>635576</v>
+        <v>635503</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9721506349471897</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9546587739647585</v>
+        <v>0.9565450850630859</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9837491959113419</v>
+        <v>0.9836369680040681</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>610</v>
@@ -5893,19 +5893,19 @@
         <v>650959</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>644589</v>
+        <v>644631</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>654082</v>
+        <v>654080</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9936875651739846</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9839646247900592</v>
+        <v>0.9840287545721315</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9984552574648227</v>
+        <v>0.9984527111010957</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1163</v>
@@ -5914,19 +5914,19 @@
         <v>1279041</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1268362</v>
+        <v>1267030</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1287343</v>
+        <v>1287521</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9829937387944286</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9747864069299781</v>
+        <v>0.9737631534889239</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9893740942826404</v>
+        <v>0.9895109126865634</v>
       </c>
     </row>
     <row r="38">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5470</v>
+        <v>5459</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001381086969438759</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.006964066617958311</v>
+        <v>0.006950812492744347</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5464</v>
+        <v>5414</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0007024277468486466</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003538236100351884</v>
+        <v>0.003505758288576495</v>
       </c>
     </row>
     <row r="40">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6351</v>
+        <v>6450</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.002426875768652081</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008368692399240001</v>
+        <v>0.008499225165884552</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5370</v>
+        <v>5469</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00137343817651419</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.006836636811096527</v>
+        <v>0.00696327613460559</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -6170,19 +6170,19 @@
         <v>2920</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7993</v>
+        <v>7988</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.001891092135423113</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0005963742244364246</v>
+        <v>0.0005944191346185075</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.005175939791343002</v>
+        <v>0.00517258603561338</v>
       </c>
     </row>
     <row r="42">
@@ -6199,7 +6199,7 @@
         <v>757023</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>752514</v>
+        <v>752415</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>758865</v>
@@ -6208,7 +6208,7 @@
         <v>0.9975731242313479</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9916313076007609</v>
+        <v>0.9915007748341154</v>
       </c>
       <c r="I42" s="6" t="n">
         <v>1</v>
@@ -6220,7 +6220,7 @@
         <v>783279</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>778902</v>
+        <v>777852</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>785443</v>
@@ -6229,7 +6229,7 @@
         <v>0.997245474854047</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9916718605530597</v>
+        <v>0.9903350667724514</v>
       </c>
       <c r="P42" s="6" t="n">
         <v>1</v>
@@ -6241,19 +6241,19 @@
         <v>1540303</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1533791</v>
+        <v>1534573</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1543226</v>
+        <v>1543233</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9974064801177283</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9931895471957539</v>
+        <v>0.9936960537826275</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9992992579061255</v>
+        <v>0.9993038514717008</v>
       </c>
     </row>
     <row r="43">
@@ -6358,19 +6358,19 @@
         <v>3126</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>8990</v>
+        <v>8654</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.000916382315565135</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0002955418389579387</v>
+        <v>0.0002941037796982606</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.002635414163114389</v>
+        <v>0.002536965543976975</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3</v>
@@ -6379,19 +6379,19 @@
         <v>3126</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>8372</v>
+        <v>8314</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0004647480634722866</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0001494502215636838</v>
+        <v>0.000149606302619143</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.001244654615026064</v>
+        <v>0.001236049293121655</v>
       </c>
     </row>
     <row r="45">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>7395</v>
+        <v>8405</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0006353613963455139</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.002230847996549614</v>
+        <v>0.002535522733566361</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>4021</v>
+        <v>4669</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0002709302297208436</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.001178852583975388</v>
+        <v>0.001368750164057242</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>3</v>
@@ -6450,19 +6450,19 @@
         <v>3030</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>8625</v>
+        <v>8065</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.000450538232387672</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0001372411563377017</v>
+        <v>0.0001371244247764709</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.001282221476927174</v>
+        <v>0.001198944718772212</v>
       </c>
     </row>
     <row r="46">
@@ -6479,19 +6479,19 @@
         <v>23494</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>14617</v>
+        <v>14825</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>35491</v>
+        <v>35676</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007087035999227424</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.004409273821917155</v>
+        <v>0.00447205912908455</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01070601318270951</v>
+        <v>0.01076184272166633</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -6500,19 +6500,19 @@
         <v>8962</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4614</v>
+        <v>4155</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16568</v>
+        <v>17059</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.002627167341459203</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001352571546998968</v>
+        <v>0.001217914577801229</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004856810729580491</v>
+        <v>0.005000636427744375</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>30</v>
@@ -6521,19 +6521,19 @@
         <v>32456</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>22228</v>
+        <v>21903</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>45706</v>
+        <v>45784</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.004825190384321293</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.003304558166128699</v>
+        <v>0.003256250156746287</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.006795011372864064</v>
+        <v>0.006806619402515391</v>
       </c>
     </row>
     <row r="47">
@@ -6550,19 +6550,19 @@
         <v>3289454</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3276598</v>
+        <v>3276688</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3298950</v>
+        <v>3298491</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9922776026044271</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9883995075419447</v>
+        <v>0.9884266476986872</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9951422216287852</v>
+        <v>0.9950035653769209</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3205</v>
@@ -6571,19 +6571,19 @@
         <v>3398299</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3389358</v>
+        <v>3389448</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3403745</v>
+        <v>3404211</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9961855201132548</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9935646965495846</v>
+        <v>0.9935911523431925</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9977821696980299</v>
+        <v>0.9979186610667246</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6333</v>
@@ -6592,19 +6592,19 @@
         <v>6687752</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>6672812</v>
+        <v>6672896</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6698917</v>
+        <v>6699039</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9942595233198187</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9920382845595517</v>
+        <v>0.9920507853162511</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9959193184005308</v>
+        <v>0.9959374488346675</v>
       </c>
     </row>
     <row r="48">
